--- a/1125/resob11211050.xlsx
+++ b/1125/resob11211050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\研二上\工作总结\1125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED7C6AC1-73BF-406C-BBB7-F06E1BA32DF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{49F77196-526E-4826-8321-DABF83252B45}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,68 +890,71 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>8991</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>113</v>
       </c>
-      <c r="D6" s="9">
-        <v>0.94281246509549876</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.98765432098765427</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="D6" s="5">
+        <v>0.852730928180498</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.16302652106084201</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7.20192970365265E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.86769099445155695</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.1162079510703304E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.96684147274117704</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.9230769230769201E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6.1162079510703304E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>24</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="5">
         <v>16</v>
       </c>
-      <c r="Q6" s="9">
-        <v>16</v>
-      </c>
-      <c r="R6" s="9">
+      <c r="R6" s="5">
         <v>208</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="5">
         <v>18098</v>
       </c>
-      <c r="T6" s="9">
-        <v>18080</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>3.1447914391788601</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
+      <c r="T6" s="5">
+        <v>17699</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3.1447914391788498</v>
+      </c>
+      <c r="W6" s="5">
+        <v>4.91373662371696</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>3</v>
@@ -1240,10 +1243,10 @@
       <c r="U10" s="9">
         <v>355</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="3">
         <v>10.4389721627409</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="3">
         <v>8.5117773019271947</v>
       </c>
       <c r="Y10" s="9" t="s">
@@ -1598,10 +1601,10 @@
       <c r="U15" s="9">
         <v>185</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="3">
         <v>6.6051136363636367</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="3">
         <v>7.2443181818181817</v>
       </c>
     </row>
@@ -1740,10 +1743,10 @@
       <c r="U17" s="9">
         <v>19</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="3">
         <v>4.995730145175064</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="3">
         <v>0.38428693424423571</v>
       </c>
     </row>
@@ -2364,6 +2367,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
